--- a/graphs/2014/datafigures.xlsx
+++ b/graphs/2014/datafigures.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\HCD+D\HCDD-Methods\graphs\not2015\metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\HCD+D\HCDD-Methods\graphs\2014\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20945" windowHeight="8129" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20940" windowHeight="8124"/>
   </bookViews>
   <sheets>
     <sheet name="distributions" sheetId="1" r:id="rId1"/>
-    <sheet name="timeseries" sheetId="3" r:id="rId2"/>
+    <sheet name="year tables" sheetId="3" r:id="rId2"/>
     <sheet name="Tables" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>Sizes</t>
   </si>
@@ -196,175 +196,64 @@
     <t>0.11 - 0.12</t>
   </si>
   <si>
-    <t>Total unique number of authors: 5</t>
+    <t>Average Co-Authors per Author (Degree)</t>
   </si>
   <si>
-    <t>Total number of papers: 2</t>
+    <t>Avg. Papers per Author</t>
   </si>
   <si>
-    <t>Density: 0.4</t>
+    <t>Avg. Authors per Paper</t>
   </si>
   <si>
-    <t>Average clustering is:  0.6</t>
+    <t>Avg. Co-Authors per Author</t>
   </si>
   <si>
-    <t>Average betweenness is: 0.0</t>
+    <t>Avg. Path Length</t>
   </si>
   <si>
-    <t>Average closeness is:  0.4</t>
+    <t>Avg. Component Size</t>
   </si>
   <si>
-    <t>Average component size: 2.5</t>
+    <t>Network avg. clustering coefficient</t>
   </si>
   <si>
-    <t>Total unique number of authors: 9</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Density: 0.44</t>
+    <t>Metric</t>
   </si>
   <si>
-    <t>Average clustering is:  1.0</t>
+    <t>Column1</t>
   </si>
   <si>
-    <t>Average component size: 4.5</t>
+    <t>Column2</t>
   </si>
   <si>
-    <t>Average closeness is:  0.44</t>
+    <t>Column3</t>
   </si>
   <si>
-    <t>Density: 1.0</t>
+    <t>Column4</t>
   </si>
   <si>
-    <t>Average closeness is:  1.0</t>
+    <t>Column5</t>
   </si>
   <si>
-    <t>Average component size: 4.0</t>
+    <t>Column6</t>
   </si>
   <si>
-    <t>Total unique number of authors: 4</t>
+    <t>Column7</t>
   </si>
   <si>
-    <t>Total number of papers: 1</t>
+    <t>Column8</t>
   </si>
   <si>
-    <t>Average component size: 4.222222222222222</t>
+    <t>Column9</t>
   </si>
   <si>
-    <t>Total unique number of authors: 38</t>
+    <t>Column10</t>
   </si>
   <si>
-    <t>Total number of papers: 14</t>
-  </si>
-  <si>
-    <t>Average clustering is:  0.8321637426900585</t>
-  </si>
-  <si>
-    <t>Average betweenness is: 0.0016200410937253042</t>
-  </si>
-  <si>
-    <t>Average closeness is:  0.11889305523782079</t>
-  </si>
-  <si>
-    <t>Density: 0.09815078236130868</t>
-  </si>
-  <si>
-    <t>Total unique number of authors: 23</t>
-  </si>
-  <si>
-    <t>Total number of papers: 7</t>
-  </si>
-  <si>
-    <t>Density: 0.2134387351778656</t>
-  </si>
-  <si>
-    <t>Average clustering is:  0.6956521739130435</t>
-  </si>
-  <si>
-    <t>Average closeness is:  0.21343873517786563</t>
-  </si>
-  <si>
-    <t>Average component size: 3.2857142857142856</t>
-  </si>
-  <si>
-    <t>Average component size: 5.222222222222222</t>
-  </si>
-  <si>
-    <t>Average clustering is:  0.9137330754352031</t>
-  </si>
-  <si>
-    <t>Average betweenness is: 0.0007400555041628122</t>
-  </si>
-  <si>
-    <t>Average closeness is:  0.1290722683006695</t>
-  </si>
-  <si>
-    <t>Total unique number of authors: 47</t>
-  </si>
-  <si>
-    <t>Total number of papers: 11</t>
-  </si>
-  <si>
-    <t>Density: 0.11655874190564293</t>
-  </si>
-  <si>
-    <t>Total unique number of authors: 49</t>
-  </si>
-  <si>
-    <t>Total number of papers: 13</t>
-  </si>
-  <si>
-    <t>Density: 0.10289115646258504</t>
-  </si>
-  <si>
-    <t>Average clustering is:  0.9215419501133787</t>
-  </si>
-  <si>
-    <t>Average betweenness is: 0.00039803155304675056</t>
-  </si>
-  <si>
-    <t>Average closeness is:  0.1088519748558764</t>
-  </si>
-  <si>
-    <t>Average component size: 4.9</t>
-  </si>
-  <si>
-    <t>Average clustering is:  0.9411764705882353</t>
-  </si>
-  <si>
-    <t>Average closeness is:  0.14795008912655971</t>
-  </si>
-  <si>
-    <t>Total unique number of authors: 34</t>
-  </si>
-  <si>
-    <t>Density: 0.14795008912655971</t>
-  </si>
-  <si>
-    <t>Average component size: 4.857142857142857</t>
-  </si>
-  <si>
-    <t>Number of Authors</t>
-  </si>
-  <si>
-    <t>Number of Papers</t>
-  </si>
-  <si>
-    <t>Avg Betweenness</t>
-  </si>
-  <si>
-    <t>Avg Clustering</t>
-  </si>
-  <si>
-    <t>Avg Closeness</t>
-  </si>
-  <si>
-    <t>Avg Component Size</t>
-  </si>
-  <si>
-    <t>Vanessa</t>
-  </si>
-  <si>
-    <t>Carol</t>
+    <t>Column11</t>
   </si>
 </sst>
 </file>
@@ -405,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -428,22 +317,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="27">
     <dxf>
       <font>
         <strike val="0"/>
@@ -547,6 +509,248 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -747,7 +951,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -770,7 +974,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -909,11 +1113,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="375504920"/>
-        <c:axId val="375509232"/>
+        <c:axId val="317414672"/>
+        <c:axId val="317415848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="375504920"/>
+        <c:axId val="317414672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +1144,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -953,7 +1157,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Component size</a:t>
                 </a:r>
               </a:p>
@@ -973,7 +1177,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1011,7 +1215,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1026,7 +1230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375509232"/>
+        <c:crossAx val="317415848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375509232"/>
+        <c:axId val="317415848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1251,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1060,7 +1264,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
@@ -1080,7 +1284,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1100,7 +1304,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="375504920"/>
+        <c:crossAx val="317414672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1183,7 +1387,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>CLUSTERING COEFFICIENT</a:t>
             </a:r>
           </a:p>
@@ -1228,8 +1432,8 @@
           <c:yMode val="edge"/>
           <c:x val="5.7725344242498637E-2"/>
           <c:y val="0.16912037037037039"/>
-          <c:w val="0.90949203033339521"/>
-          <c:h val="0.654123344695836"/>
+          <c:w val="0.8818252515101026"/>
+          <c:h val="0.44626062424264107"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1241,7 +1445,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1264,7 +1468,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -1396,11 +1600,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="375506488"/>
-        <c:axId val="375508840"/>
+        <c:axId val="317415456"/>
+        <c:axId val="317416240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="375506488"/>
+        <c:axId val="317415456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1631,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1440,8 +1644,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CLUSTERING COEFFICIENT</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
+                  <a:t>Clustering Coefficient</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1460,7 +1664,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1498,7 +1702,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1513,7 +1717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="375508840"/>
+        <c:crossAx val="317416240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1521,7 +1725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="375508840"/>
+        <c:axId val="317416240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1738,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1547,8 +1751,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FREQUENCY</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
+                  <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1574,7 +1778,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1594,7 +1798,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="375506488"/>
+        <c:crossAx val="317415456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1664,11 +1868,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1677,13 +1881,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>DEGREE DISTRIBUTION</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2114095714611377"/>
+          <c:y val="1.8113803895252294E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1697,11 +1908,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1715,7 +1926,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9835980205815624E-2"/>
+          <c:y val="0.22323016903958687"/>
+          <c:w val="0.84570991583752031"/>
+          <c:h val="0.5027021331706053"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1724,27 +1945,73 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent2"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent2"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>distributions!$B$30:$B$56</c:f>
@@ -1927,25 +2194,40 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
-        <c:axId val="319081936"/>
-        <c:axId val="319079192"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="320402424"/>
+        <c:axId val="320397720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319081936"/>
+        <c:axId val="320402424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1953,7 +2235,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1966,13 +2248,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>DEGREE</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
+                  <a:t>Degree</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4084143329222128"/>
+              <c:y val="0.84377472621547023"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1986,7 +2275,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2008,11 +2297,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2024,7 +2313,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2039,7 +2328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319079192"/>
+        <c:crossAx val="320397720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2047,11 +2336,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319079192"/>
+        <c:axId val="320397720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -2060,7 +2349,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2073,13 +2362,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="0"/>
-                  <a:t>FREQUENCY</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
+                  <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.636993926734118E-2"/>
+              <c:y val="0.28074007012324159"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2093,7 +2389,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2113,34 +2409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="319081936"/>
+        <c:crossAx val="320402424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2158,7 +2427,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2223,7 +2492,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>Authors per paper</a:t>
             </a:r>
           </a:p>
@@ -2233,8 +2502,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27745122484689416"/>
-          <c:y val="2.3148148148148147E-2"/>
+          <c:x val="0.17782344522440247"/>
+          <c:y val="1.9695741878827496E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2273,10 +2542,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.78367198092059E-2"/>
-          <c:y val="0.15466514598933678"/>
-          <c:w val="0.89191112533018324"/>
-          <c:h val="0.66538752317523342"/>
+          <c:x val="0.10257351206546754"/>
+          <c:y val="0.23166503178603634"/>
+          <c:w val="0.81191780337617658"/>
+          <c:h val="0.4869255295340994"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2311,7 +2580,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2450,11 +2719,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="319075664"/>
-        <c:axId val="319076056"/>
+        <c:axId val="320398896"/>
+        <c:axId val="320402032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="319075664"/>
+        <c:axId val="320398896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +2750,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2494,8 +2763,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>number of Authors</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
+                  <a:t>Number of Authors</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2504,8 +2773,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.37017297604701899"/>
-              <c:y val="0.89466631503418248"/>
+              <c:x val="0.23412037500287763"/>
+              <c:y val="0.8351983391476655"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2521,7 +2790,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2559,7 +2828,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2574,7 +2843,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319076056"/>
+        <c:crossAx val="320402032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2582,7 +2851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="319076056"/>
+        <c:axId val="320402032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,7 +2864,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2608,9 +2877,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>frequency</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
+                  <a:t>Frequency</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="2400" b="1" cap="none" baseline="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2635,7 +2905,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2655,7 +2925,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319075664"/>
+        <c:crossAx val="320398896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2738,7 +3008,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>Papers per Author</a:t>
             </a:r>
           </a:p>
@@ -2748,8 +3018,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31227089747862052"/>
-          <c:y val="2.8233927336235191E-2"/>
+          <c:x val="0.18838039010461391"/>
+          <c:y val="9.9133626632496915E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2783,7 +3053,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9123345838828416E-2"/>
+          <c:y val="0.22577964767314754"/>
+          <c:w val="0.84165569160130527"/>
+          <c:h val="0.47605877712200201"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2816,7 +3096,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -2961,8 +3241,8 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="377379584"/>
-        <c:axId val="377372136"/>
+        <c:axId val="320401640"/>
+        <c:axId val="320402816"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3144,7 +3424,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="377379584"/>
+        <c:axId val="320401640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3184,7 +3464,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
                   <a:t>Number of Papers</a:t>
                 </a:r>
               </a:p>
@@ -3194,8 +3474,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39497782844236301"/>
-              <c:y val="0.8897459155067351"/>
+              <c:x val="0.27883070184759456"/>
+              <c:y val="0.82014033608443448"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3249,7 +3529,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3264,7 +3544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377372136"/>
+        <c:crossAx val="320402816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3272,7 +3552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377372136"/>
+        <c:axId val="320402816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,7 +3578,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
                   <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
@@ -3308,8 +3588,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8946383413261835E-2"/>
-              <c:y val="0.36522524645536308"/>
+              <c:x val="5.7190876060237835E-3"/>
+              <c:y val="0.28736237401377585"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3345,7 +3625,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377379584"/>
+        <c:crossAx val="320401640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3473,8 +3753,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.11256173304083118"/>
           <c:y val="0.17788822860131437"/>
-          <c:w val="0.83369734896273173"/>
-          <c:h val="0.4278068196434589"/>
+          <c:w val="0.85735126516318916"/>
+          <c:h val="0.46558011621873518"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3520,7 +3800,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3664,8 +3944,8 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="377374880"/>
-        <c:axId val="377375664"/>
+        <c:axId val="320398112"/>
+        <c:axId val="320403600"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3824,7 +4104,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="377374880"/>
+        <c:axId val="320398112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,7 +4131,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3864,7 +4144,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Betweenness Centrality</a:t>
                 </a:r>
               </a:p>
@@ -3884,7 +4164,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3922,7 +4202,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3937,7 +4217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377375664"/>
+        <c:crossAx val="320403600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3945,7 +4225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377375664"/>
+        <c:axId val="320403600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3958,7 +4238,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3971,7 +4251,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>FREQUENCY</a:t>
                 </a:r>
               </a:p>
@@ -3998,7 +4278,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4018,7 +4298,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377374880"/>
+        <c:crossAx val="320398112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4111,8 +4391,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29306143011844543"/>
-          <c:y val="2.6004650224791908E-2"/>
+          <c:x val="0.27889207959091716"/>
+          <c:y val="2.2264253525333007E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4151,10 +4431,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.2139675454040764E-2"/>
-          <c:y val="0.12798653215199585"/>
-          <c:w val="0.8962844541938545"/>
-          <c:h val="0.62884038770912132"/>
+          <c:x val="0.15920324021061069"/>
+          <c:y val="0.15042883611807079"/>
+          <c:w val="0.54684161142264609"/>
+          <c:h val="0.60639792092309697"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4166,7 +4446,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4189,7 +4469,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4333,11 +4613,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="377372920"/>
-        <c:axId val="377373312"/>
+        <c:axId val="320404384"/>
+        <c:axId val="320399680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="377372920"/>
+        <c:axId val="320404384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4364,7 +4644,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4377,7 +4657,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Closeness</a:t>
                 </a:r>
               </a:p>
@@ -4387,8 +4667,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.46441516622085127"/>
-              <c:y val="0.8959811455588248"/>
+              <c:x val="0.67341830337354991"/>
+              <c:y val="0.89972147225929089"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4404,7 +4684,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4442,7 +4722,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4457,7 +4737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377373312"/>
+        <c:crossAx val="320399680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4465,7 +4745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377373312"/>
+        <c:axId val="320399680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,7 +4758,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4491,7 +4771,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>frequency</a:t>
                 </a:r>
               </a:p>
@@ -4501,8 +4781,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.9320451041240075E-2"/>
-              <c:y val="0.34805295679054055"/>
+              <c:x val="0.10623938000676747"/>
+              <c:y val="0.34431265320571969"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4518,7 +4798,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4538,7 +4818,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="377372920"/>
+        <c:crossAx val="320404384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4587,1205 +4867,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="7"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time Series for Community Metrics</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.0906342097652568E-2"/>
-          <c:y val="0.19702248300375186"/>
-          <c:w val="0.84657409940698236"/>
-          <c:h val="0.62670022457155783"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>2014</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="42000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>timeseries!$B$35:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Diameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Density</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Avg Clustering</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avg Betweenness</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avg Closeness</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Avg Component Size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$C$35:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2013</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="55000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>timeseries!$B$35:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Diameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Density</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Avg Clustering</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avg Betweenness</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avg Closeness</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Avg Component Size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$G$25:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8600000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>2012</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="68000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>timeseries!$B$35:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Diameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Density</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Avg Clustering</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avg Betweenness</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avg Closeness</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Avg Component Size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$E$25:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>2011</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>timeseries!$B$35:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Diameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Density</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Avg Clustering</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avg Betweenness</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avg Closeness</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Avg Component Size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$C$25:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.3999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>2010</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="93000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>timeseries!$B$35:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Diameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Density</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Avg Clustering</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avg Betweenness</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avg Closeness</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Avg Component Size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$G$15:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>2009</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>timeseries!$B$35:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Diameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Density</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Avg Clustering</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avg Betweenness</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avg Closeness</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Avg Component Size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$E$15:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>2008</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="81000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>timeseries!$B$35:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Diameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Density</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Avg Clustering</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avg Betweenness</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avg Closeness</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Avg Component Size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$C$15:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>2007</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="69000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>timeseries!$B$35:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Diameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Density</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Avg Clustering</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avg Betweenness</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avg Closeness</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Avg Component Size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$G$5:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>2005</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="56000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>timeseries!$B$35:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Diameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Density</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Avg Clustering</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avg Betweenness</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avg Closeness</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Avg Component Size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$E$5:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>2004</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="43000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>timeseries!$B$35:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Diameter</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Density</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Avg Clustering</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avg Betweenness</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avg Closeness</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Avg Component Size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$C$5:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="377376056"/>
-        <c:axId val="377379192"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="377376056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Community Metrics</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="377379192"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="377379192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Value</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="377376056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.8258265288057928E-2"/>
-          <c:y val="0.11545454856329405"/>
-          <c:w val="0.89999998374358825"/>
-          <c:h val="5.2348084449066912E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5819,10 +4905,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -6016,10 +5102,10 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -6052,12 +5138,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
-  <a:schemeClr val="accent5"/>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
@@ -7107,525 +6187,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8149,7 +6710,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8673,7 +7234,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9197,7 +7758,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9721,26 +8282,26 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -9748,7 +8309,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -9756,9 +8317,9 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9771,7 +8332,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -9786,12 +8347,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -9882,9 +8446,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="15875">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9892,7 +8456,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -9916,23 +8480,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -9948,127 +8511,196 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="51000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -10076,114 +8708,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10199,6 +8735,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10207,12 +8744,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -10225,14 +8762,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10241,33 +8777,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10282,10 +8816,10 @@
       <xdr:rowOff>120534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>465513</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>187036</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>366155</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10312,10 +8846,10 @@
       <xdr:rowOff>38991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>196735</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>126276</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10337,15 +8871,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>197723</xdr:colOff>
+      <xdr:colOff>197722</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>177535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>168629</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>56011</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>158336</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10369,13 +8903,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>475013</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>534389</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>158338</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10397,15 +8931,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>448492</xdr:colOff>
+      <xdr:colOff>448493</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>179514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>506681</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>49480</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10427,15 +8961,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>120731</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>112219</xdr:rowOff>
+      <xdr:colOff>120730</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>428302</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>59377</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>66500</xdr:rowOff>
+      <xdr:rowOff>66501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10457,15 +8991,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>524491</xdr:colOff>
+      <xdr:colOff>524490</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>127659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>39582</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>98961</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>168234</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10487,62 +9021,47 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>714893</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>153785</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>191192</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="J5:K9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="L5:M9" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <tableColumns count="2">
-    <tableColumn id="5" name="Column1" dataDxfId="13"/>
-    <tableColumn id="4" name="Column4" dataDxfId="12"/>
+    <tableColumn id="5" name="Column1" dataDxfId="24"/>
+    <tableColumn id="4" name="Column4" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table44" displayName="Table44" ref="M5:N10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table44" displayName="Table44" ref="N5:O10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" dataDxfId="9"/>
-    <tableColumn id="2" name="Column2" dataDxfId="8"/>
+    <tableColumn id="1" name="Column1" dataDxfId="20"/>
+    <tableColumn id="2" name="Column2" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:K14" totalsRowShown="0">
+  <autoFilter ref="A1:K14"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Column1" dataDxfId="18"/>
+    <tableColumn id="2" name="Column2" dataDxfId="17"/>
+    <tableColumn id="3" name="Column3" dataDxfId="16"/>
+    <tableColumn id="4" name="Column4" dataDxfId="15"/>
+    <tableColumn id="5" name="Column5" dataDxfId="14"/>
+    <tableColumn id="6" name="Column6" dataDxfId="13"/>
+    <tableColumn id="7" name="Column7" dataDxfId="12"/>
+    <tableColumn id="8" name="Column8" dataDxfId="11"/>
+    <tableColumn id="9" name="Column9" dataDxfId="10"/>
+    <tableColumn id="10" name="Column10" dataDxfId="9"/>
+    <tableColumn id="11" name="Column11" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:C7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="2">
     <tableColumn id="5" name="Column1" dataDxfId="5"/>
@@ -10552,7 +9071,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="E3:F8" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
     <tableColumn id="1" name="Column1" dataDxfId="1"/>
@@ -10827,11 +9346,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S252"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="R89" sqref="R89"/>
+    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="Q2" t="s">
@@ -12070,701 +10589,748 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N40"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="42.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1">
+        <v>247</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1">
+        <v>78</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10">
         <v>2004</v>
       </c>
-      <c r="D2">
+      <c r="C19" s="10">
         <v>2005</v>
       </c>
-      <c r="F2">
+      <c r="D19" s="10">
         <v>2007</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3">
+      <c r="E19" s="10">
+        <v>2008</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2009</v>
+      </c>
+      <c r="G19" s="10">
+        <v>2010</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2011</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2012</v>
+      </c>
+      <c r="J19" s="10">
+        <v>2013</v>
+      </c>
+      <c r="K19" s="10">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3">
+      <c r="C20" s="7">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7">
+        <v>18</v>
+      </c>
+      <c r="E20" s="7">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7">
+        <v>60</v>
+      </c>
+      <c r="G20" s="7">
+        <v>79</v>
+      </c>
+      <c r="H20" s="7">
+        <v>118</v>
+      </c>
+      <c r="I20" s="7">
+        <v>159</v>
+      </c>
+      <c r="J20" s="7">
+        <v>190</v>
+      </c>
+      <c r="K20" s="7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8">
+        <v>7</v>
+      </c>
+      <c r="F21" s="8">
+        <v>21</v>
+      </c>
+      <c r="G21" s="8">
+        <v>28</v>
+      </c>
+      <c r="H21" s="8">
+        <v>39</v>
+      </c>
+      <c r="I21" s="8">
+        <v>52</v>
+      </c>
+      <c r="J21" s="8">
+        <v>59</v>
+      </c>
+      <c r="K21" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.19</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3.17</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3.29</v>
+      </c>
+      <c r="F23" s="8">
+        <v>3.24</v>
+      </c>
+      <c r="G23" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="H23" s="8">
+        <v>3.62</v>
+      </c>
+      <c r="I23" s="8">
+        <v>3.92</v>
+      </c>
+      <c r="J23" s="8">
+        <v>4.03</v>
+      </c>
+      <c r="K23" s="8">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2.86</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2.67</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2.73</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="G24" s="7">
+        <v>3.85</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4.47</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4.63</v>
+      </c>
+      <c r="J24" s="7">
+        <v>4.74</v>
+      </c>
+      <c r="K24" s="7">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H25" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I25" s="8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J25" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>3</v>
+      </c>
+      <c r="G26" s="7">
+        <v>3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3</v>
+      </c>
+      <c r="J26" s="7">
+        <v>4</v>
+      </c>
+      <c r="K26" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1.06</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3.67</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4.16</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4.37</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4.42</v>
+      </c>
+      <c r="J28" s="7">
+        <v>4.63</v>
+      </c>
+      <c r="K28" s="7">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
+      <c r="D29" s="8">
+        <v>6</v>
+      </c>
+      <c r="E29" s="8">
+        <v>6</v>
+      </c>
+      <c r="F29" s="8">
+        <v>11</v>
+      </c>
+      <c r="G29" s="8">
+        <v>20</v>
+      </c>
+      <c r="H29" s="8">
+        <v>24</v>
+      </c>
+      <c r="I29" s="8">
+        <v>28</v>
+      </c>
+      <c r="J29" s="8">
+        <v>34</v>
+      </c>
+      <c r="K29" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C30" s="7">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1">
-        <v>247</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>0.4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6">
-        <v>0.44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="1">
-        <v>78</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7">
-        <v>0.6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7">
-        <v>0.6</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3.85</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9">
-        <v>0.4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9">
-        <v>0.44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9">
-        <v>0.4</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10">
-        <v>2.5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10">
-        <v>4.5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10">
-        <v>2.5</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="D30" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="F30" s="7">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>2008</v>
-      </c>
-      <c r="D12">
-        <v>2009</v>
-      </c>
-      <c r="F12">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17">
+      <c r="G30" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="I30" s="7">
         <v>0.83</v>
       </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19">
-        <v>0.12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20">
-        <v>4.22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>2011</v>
-      </c>
-      <c r="D22">
-        <v>2012</v>
-      </c>
-      <c r="F22">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23">
-        <v>49</v>
-      </c>
-      <c r="F23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26">
-        <v>0.12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26">
-        <v>0.1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27">
-        <v>0.91</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27">
-        <v>0.92</v>
-      </c>
-      <c r="F27" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28">
-        <v>7.3999999999999999E-4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29">
-        <v>0.13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29">
-        <v>0.11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30">
-        <v>5.22</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30">
-        <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40">
-        <v>3.32</v>
+      <c r="J30" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q24"/>
+  <dimension ref="B3:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="26.44140625" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.6640625" style="1" customWidth="1"/>
@@ -12836,7 +11402,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>4.4400000000000004</v>
@@ -12870,54 +11436,6 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="Q16" s="1">
         <v>4.26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="1">
-        <v>6.98</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="1">
-        <v>3.99</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="1">
-        <f>2.99*2</f>
-        <v>5.98</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D23" s="1">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="1">
-        <f>SUM(C20:C22)</f>
-        <v>16.950000000000003</v>
-      </c>
-      <c r="D24" s="1">
-        <f>SUM(D20:D23)</f>
-        <v>10.55</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/2014/datafigures.xlsx
+++ b/graphs/2014/datafigures.xlsx
@@ -903,13 +903,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>COMPONENT SIZES</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2131387638064097"/>
+          <c:y val="8.1355810598548149E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -974,7 +981,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -1113,11 +1120,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="317414672"/>
-        <c:axId val="317415848"/>
+        <c:axId val="417057328"/>
+        <c:axId val="417062032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317414672"/>
+        <c:axId val="417057328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,13 +1164,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
                   <a:t>Component size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.33580209927729832"/>
+              <c:y val="0.83966787611367777"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1215,7 +1229,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1230,7 +1244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317415848"/>
+        <c:crossAx val="417062032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1238,7 +1252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317415848"/>
+        <c:axId val="417062032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,13 +1278,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
                   <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1710324862104179E-2"/>
+              <c:y val="0.27863756562915581"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1304,7 +1325,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317414672"/>
+        <c:crossAx val="417057328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1393,7 +1414,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1022303107515635"/>
+          <c:y val="3.8493083671840098E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1430,9 +1458,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.7725344242498637E-2"/>
-          <c:y val="0.16912037037037039"/>
-          <c:w val="0.8818252515101026"/>
+          <c:x val="0.10421927925518341"/>
+          <c:y val="0.1883669657811641"/>
+          <c:w val="0.82712642074178011"/>
           <c:h val="0.44626062424264107"/>
         </c:manualLayout>
       </c:layout>
@@ -1468,7 +1496,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -1600,11 +1628,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="317415456"/>
-        <c:axId val="317416240"/>
+        <c:axId val="417061248"/>
+        <c:axId val="417059288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317415456"/>
+        <c:axId val="417061248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,7 +1678,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.22417070500922448"/>
+              <c:y val="0.88701370656873868"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1698,11 +1733,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-3600000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1717,7 +1752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317416240"/>
+        <c:crossAx val="417059288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1725,7 +1760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317416240"/>
+        <c:axId val="417059288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,8 +1796,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9825852407119152E-2"/>
-              <c:y val="0.38871925030803134"/>
+              <c:x val="5.7842890869674109E-4"/>
+              <c:y val="0.28478789704706525"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1798,7 +1833,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317415456"/>
+        <c:crossAx val="417061248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2204,11 +2239,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="320402424"/>
-        <c:axId val="320397720"/>
+        <c:axId val="417060856"/>
+        <c:axId val="417062816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320402424"/>
+        <c:axId val="417060856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +2363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320397720"/>
+        <c:crossAx val="417062816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2336,7 +2371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320397720"/>
+        <c:axId val="417062816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2444,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320402424"/>
+        <c:crossAx val="417060856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2719,11 +2754,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="320398896"/>
-        <c:axId val="320402032"/>
+        <c:axId val="417058112"/>
+        <c:axId val="417063992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320398896"/>
+        <c:axId val="417058112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,7 +2878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320402032"/>
+        <c:crossAx val="417063992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2851,7 +2886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320402032"/>
+        <c:axId val="417063992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,7 +2960,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320398896"/>
+        <c:crossAx val="417058112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3241,8 +3276,8 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="320401640"/>
-        <c:axId val="320402816"/>
+        <c:axId val="418033344"/>
+        <c:axId val="418039224"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3424,7 +3459,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320401640"/>
+        <c:axId val="418033344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3544,7 +3579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320402816"/>
+        <c:crossAx val="418039224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3552,7 +3587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320402816"/>
+        <c:axId val="418039224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3625,7 +3660,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320401640"/>
+        <c:crossAx val="418033344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3708,13 +3743,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>Betweenness Centrality</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2098852260369278"/>
+          <c:y val="2.1365951645654944E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3751,10 +3793,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11256173304083118"/>
-          <c:y val="0.17788822860131437"/>
-          <c:w val="0.85735126516318916"/>
-          <c:h val="0.46558011621873518"/>
+          <c:x val="0.15739985591928793"/>
+          <c:y val="0.18664156923722333"/>
+          <c:w val="0.75059359740284837"/>
+          <c:h val="0.34303365982506701"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3800,7 +3842,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -3944,8 +3986,8 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="320398112"/>
-        <c:axId val="320403600"/>
+        <c:axId val="418038048"/>
+        <c:axId val="418034520"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -4104,7 +4146,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320398112"/>
+        <c:axId val="418038048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4144,13 +4186,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
                   <a:t>Betweenness Centrality</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.30649329907003214"/>
+              <c:y val="0.82664049402695416"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4202,7 +4251,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4217,7 +4266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320403600"/>
+        <c:crossAx val="418034520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4225,7 +4274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320403600"/>
+        <c:axId val="418034520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4238,7 +4287,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4251,8 +4300,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>FREQUENCY</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
+                  <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4261,8 +4310,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.8859100662764355E-2"/>
-              <c:y val="0.29382486036459166"/>
+              <c:x val="7.1669982876755495E-2"/>
+              <c:y val="0.2763182411030371"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4278,7 +4327,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4298,7 +4347,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320398112"/>
+        <c:crossAx val="418038048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4381,7 +4430,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>Closeness Centrality</a:t>
             </a:r>
           </a:p>
@@ -4391,8 +4440,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27889207959091716"/>
-          <c:y val="2.2264253525333007E-2"/>
+          <c:x val="0.19454502332476523"/>
+          <c:y val="6.7603592869562084E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4432,9 +4481,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15920324021061069"/>
-          <c:y val="0.15042883611807079"/>
-          <c:w val="0.54684161142264609"/>
-          <c:h val="0.60639792092309697"/>
+          <c:y val="0.16782055550858954"/>
+          <c:w val="0.6112117919442478"/>
+          <c:h val="0.50562274747520375"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4469,7 +4518,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="50000"/>
@@ -4613,11 +4662,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="320404384"/>
-        <c:axId val="320399680"/>
+        <c:axId val="418038440"/>
+        <c:axId val="418038832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="320404384"/>
+        <c:axId val="418038440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4657,7 +4706,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
                   <a:t>Closeness</a:t>
                 </a:r>
               </a:p>
@@ -4667,8 +4716,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.67341830337354991"/>
-              <c:y val="0.89972147225929089"/>
+              <c:x val="0.71337218376464906"/>
+              <c:y val="0.86273244743562005"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4718,11 +4767,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-3000000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4737,7 +4786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320399680"/>
+        <c:crossAx val="418038832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4745,7 +4794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="320399680"/>
+        <c:axId val="418038832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4771,8 +4820,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>frequency</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="1" cap="none" baseline="0"/>
+                  <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4781,8 +4830,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.10623938000676747"/>
-              <c:y val="0.34431265320571969"/>
+              <c:x val="8.6262394039710213E-2"/>
+              <c:y val="0.31718082244374585"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4818,7 +4867,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320404384"/>
+        <c:crossAx val="418038440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8841,15 +8890,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>155171</xdr:colOff>
+      <xdr:colOff>173315</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38991</xdr:rowOff>
+      <xdr:rowOff>48062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>562428</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>72571</xdr:rowOff>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8961,15 +9010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>120730</xdr:colOff>
+      <xdr:colOff>120729</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>128650</xdr:rowOff>
+      <xdr:rowOff>128649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>59377</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66501</xdr:rowOff>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8991,15 +9040,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>524490</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>127659</xdr:rowOff>
+      <xdr:colOff>587990</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>168234</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:colOff>231734</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>11545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9346,8 +9395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="N66" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="AA82" sqref="AA82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11344,7 +11393,7 @@
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
@@ -11358,7 +11407,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -11372,7 +11421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -11386,7 +11435,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -11400,7 +11449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>56</v>
       </c>
@@ -11414,7 +11463,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
@@ -11424,16 +11473,16 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="Q15" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="Q16" s="1">
         <v>4.26</v>
       </c>
